--- a/biology/Zoologie/Exocuticule/Exocuticule.xlsx
+++ b/biology/Zoologie/Exocuticule/Exocuticule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’exocuticule est la couche intermédiaire de la cuticule. Elle est composée essentiellement de protéines durcies nommées les tannées (en particulier de l’arthropodine (de) et de la sclérotine) qui sont responsables de la rigidité de la cuticule et minoritairement de chitine. La mélanine est également présente donne la coloration brunâtre-noirâtre de nombreux arthropodes.
 </t>
